--- a/Financials/Yearly/GRIN_YR_FIN.xlsx
+++ b/Financials/Yearly/GRIN_YR_FIN.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Sundeep\Stocks_Automation\Financials\Yearly\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{540D2ADD-D082-4870-AA7F-D37DFE739F55}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="GRIN" sheetId="6" r:id="rId1"/>
@@ -17,7 +18,7 @@
   <definedNames>
     <definedName name="Ticker">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="152511" calcMode="manual"/>
+  <calcPr calcId="152511" calcMode="manual" concurrentCalc="0"/>
 </workbook>
 </file>
 
@@ -303,9 +304,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="[$-409]d\-mmm\-yy;@"/>
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -347,7 +348,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -444,6 +445,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -479,6 +497,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -654,33 +689,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A5:K102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.140625" style="1"/>
+    <col min="1" max="1" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="6" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="10" width="4.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
@@ -707,7 +742,7 @@
       </c>
       <c r="K7" s="2"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
@@ -734,7 +769,7 @@
       </c>
       <c r="K8" s="3"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
@@ -761,7 +796,7 @@
       </c>
       <c r="K9" s="3"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
@@ -788,7 +823,7 @@
       </c>
       <c r="K10" s="3"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -801,7 +836,7 @@
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -828,7 +863,7 @@
       </c>
       <c r="K12" s="3"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -855,7 +890,7 @@
       </c>
       <c r="K13" s="3"/>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
@@ -882,7 +917,7 @@
       </c>
       <c r="K14" s="3"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
@@ -909,7 +944,7 @@
       </c>
       <c r="K15" s="3"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -919,7 +954,7 @@
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
     </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
@@ -946,7 +981,7 @@
       </c>
       <c r="K17" s="3"/>
     </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
@@ -973,7 +1008,7 @@
       </c>
       <c r="K18" s="3"/>
     </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -986,7 +1021,7 @@
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
     </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1013,7 +1048,7 @@
       </c>
       <c r="K20" s="3"/>
     </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
@@ -1040,7 +1075,7 @@
       </c>
       <c r="K21" s="3"/>
     </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1067,7 +1102,7 @@
       </c>
       <c r="K22" s="3"/>
     </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
@@ -1094,7 +1129,7 @@
       </c>
       <c r="K23" s="3"/>
     </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
@@ -1121,7 +1156,7 @@
       </c>
       <c r="K24" s="3"/>
     </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1148,7 +1183,7 @@
       </c>
       <c r="K25" s="3"/>
     </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
@@ -1175,7 +1210,7 @@
       </c>
       <c r="K26" s="3"/>
     </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
@@ -1202,7 +1237,7 @@
       </c>
       <c r="K27" s="3"/>
     </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="28" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1229,7 +1264,7 @@
       </c>
       <c r="K28" s="3"/>
     </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1256,7 +1291,7 @@
       </c>
       <c r="K29" s="3"/>
     </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1283,7 +1318,7 @@
       </c>
       <c r="K30" s="3"/>
     </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1310,7 +1345,7 @@
       </c>
       <c r="K31" s="3"/>
     </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1337,7 +1372,7 @@
       </c>
       <c r="K32" s="3"/>
     </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
@@ -1364,7 +1399,7 @@
       </c>
       <c r="K33" s="3"/>
     </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1391,7 +1426,7 @@
       </c>
       <c r="K34" s="3"/>
     </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
@@ -1418,12 +1453,12 @@
       </c>
       <c r="K35" s="3"/>
     </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
@@ -1450,7 +1485,7 @@
       </c>
       <c r="K38" s="2"/>
     </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1463,7 +1498,7 @@
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
     </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1476,7 +1511,7 @@
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
     </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
@@ -1503,7 +1538,7 @@
       </c>
       <c r="K41" s="3"/>
     </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1530,7 +1565,7 @@
       </c>
       <c r="K42" s="3"/>
     </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
@@ -1557,7 +1592,7 @@
       </c>
       <c r="K43" s="3"/>
     </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
@@ -1584,7 +1619,7 @@
       </c>
       <c r="K44" s="3"/>
     </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
@@ -1611,7 +1646,7 @@
       </c>
       <c r="K45" s="3"/>
     </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
@@ -1638,7 +1673,7 @@
       </c>
       <c r="K46" s="3"/>
     </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
@@ -1665,7 +1700,7 @@
       </c>
       <c r="K47" s="3"/>
     </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
@@ -1692,7 +1727,7 @@
       </c>
       <c r="K48" s="3"/>
     </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="49" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
@@ -1719,7 +1754,7 @@
       </c>
       <c r="K49" s="3"/>
     </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="50" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1746,7 +1781,7 @@
       </c>
       <c r="K50" s="3"/>
     </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="51" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1773,7 +1808,7 @@
       </c>
       <c r="K51" s="3"/>
     </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="52" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
@@ -1800,7 +1835,7 @@
       </c>
       <c r="K52" s="3"/>
     </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="53" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1827,7 +1862,7 @@
       </c>
       <c r="K53" s="3"/>
     </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="54" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
@@ -1854,7 +1889,7 @@
       </c>
       <c r="K54" s="3"/>
     </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="55" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1867,7 +1902,7 @@
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
     </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="56" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1880,7 +1915,7 @@
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
     </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="57" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
@@ -1907,7 +1942,7 @@
       </c>
       <c r="K57" s="3"/>
     </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="58" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
@@ -1934,7 +1969,7 @@
       </c>
       <c r="K58" s="3"/>
     </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="59" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
@@ -1961,7 +1996,7 @@
       </c>
       <c r="K59" s="3"/>
     </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="60" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
@@ -1988,7 +2023,7 @@
       </c>
       <c r="K60" s="3"/>
     </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="61" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
@@ -2015,7 +2050,7 @@
       </c>
       <c r="K61" s="3"/>
     </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="62" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
@@ -2042,7 +2077,7 @@
       </c>
       <c r="K62" s="3"/>
     </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="63" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2069,7 +2104,7 @@
       </c>
       <c r="K63" s="3"/>
     </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="64" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2096,7 +2131,7 @@
       </c>
       <c r="K64" s="3"/>
     </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2123,7 +2158,7 @@
       </c>
       <c r="K65" s="3"/>
     </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
@@ -2150,7 +2185,7 @@
       </c>
       <c r="K66" s="3"/>
     </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2163,7 +2198,7 @@
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
     </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2190,7 +2225,7 @@
       </c>
       <c r="K68" s="3"/>
     </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2217,7 +2252,7 @@
       </c>
       <c r="K69" s="3"/>
     </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2244,7 +2279,7 @@
       </c>
       <c r="K70" s="3"/>
     </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2271,7 +2306,7 @@
       </c>
       <c r="K71" s="3"/>
     </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
@@ -2298,7 +2333,7 @@
       </c>
       <c r="K72" s="3"/>
     </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2325,7 +2360,7 @@
       </c>
       <c r="K73" s="3"/>
     </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="74" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2352,7 +2387,7 @@
       </c>
       <c r="K74" s="3"/>
     </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2379,7 +2414,7 @@
       </c>
       <c r="K75" s="3"/>
     </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
@@ -2406,7 +2441,7 @@
       </c>
       <c r="K76" s="3"/>
     </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2433,12 +2468,12 @@
       </c>
       <c r="K77" s="3"/>
     </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
@@ -2465,7 +2500,7 @@
       </c>
       <c r="K80" s="2"/>
     </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="81" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
@@ -2492,7 +2527,7 @@
       </c>
       <c r="K81" s="3"/>
     </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="82" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2505,7 +2540,7 @@
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
     </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="83" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
@@ -2532,7 +2567,7 @@
       </c>
       <c r="K83" s="3"/>
     </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="84" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2559,7 +2594,7 @@
       </c>
       <c r="K84" s="3"/>
     </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="85" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2586,7 +2621,7 @@
       </c>
       <c r="K85" s="3"/>
     </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="86" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2613,7 +2648,7 @@
       </c>
       <c r="K86" s="3"/>
     </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="87" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2640,7 +2675,7 @@
       </c>
       <c r="K87" s="3"/>
     </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="88" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2667,7 +2702,7 @@
       </c>
       <c r="K88" s="3"/>
     </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="89" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
@@ -2694,7 +2729,7 @@
       </c>
       <c r="K89" s="3"/>
     </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="90" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2707,7 +2742,7 @@
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
     </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="91" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
@@ -2718,7 +2753,7 @@
         <v>-700</v>
       </c>
       <c r="F91" s="3">
-        <v>-14700</v>
+        <v>-14600</v>
       </c>
       <c r="G91" s="3" t="s">
         <v>3</v>
@@ -2734,7 +2769,7 @@
       </c>
       <c r="K91" s="3"/>
     </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="92" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2761,7 +2796,7 @@
       </c>
       <c r="K92" s="3"/>
     </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="93" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2788,7 +2823,7 @@
       </c>
       <c r="K93" s="3"/>
     </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="94" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
@@ -2815,7 +2850,7 @@
       </c>
       <c r="K94" s="3"/>
     </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="95" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2828,7 +2863,7 @@
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
     </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="96" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
@@ -2855,7 +2890,7 @@
       </c>
       <c r="K96" s="3"/>
     </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="97" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2882,7 +2917,7 @@
       </c>
       <c r="K97" s="3"/>
     </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="98" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2909,7 +2944,7 @@
       </c>
       <c r="K98" s="3"/>
     </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="99" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2936,7 +2971,7 @@
       </c>
       <c r="K99" s="3"/>
     </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="100" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
@@ -2963,7 +2998,7 @@
       </c>
       <c r="K100" s="3"/>
     </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="101" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
@@ -2990,7 +3025,7 @@
       </c>
       <c r="K101" s="3"/>
     </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.2">
+    <row r="102" spans="3:11" x14ac:dyDescent="0.3">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>

--- a/Financials/Yearly/GRIN_YR_FIN.xlsx
+++ b/Financials/Yearly/GRIN_YR_FIN.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\sundeep\Stocks_Automation\Financials\Yearly\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{540D2ADD-D082-4870-AA7F-D37DFE739F55}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9348" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9345"/>
   </bookViews>
   <sheets>
     <sheet name="GRIN" sheetId="6" r:id="rId1"/>
@@ -23,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="92">
   <si>
     <t>GRIN</t>
   </si>
@@ -304,7 +303,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
   </numFmts>
@@ -445,23 +444,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -497,23 +479,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -689,48 +654,48 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A5:K102"/>
+  <dimension ref="A5:L102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="16.2" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="26.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="69.109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="6" width="14.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="10" width="4.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="9.109375" style="1"/>
+    <col min="1" max="1" width="7.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="69.140625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="7" width="14.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="11" width="4.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C7" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E7" s="2">
         <v>43100</v>
       </c>
-      <c r="E7" s="2">
+      <c r="F7" s="2">
         <v>42735</v>
       </c>
-      <c r="F7" s="2">
+      <c r="G7" s="2">
         <v>42369</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H7" s="2" t="s">
         <v>3</v>
       </c>
@@ -740,24 +705,27 @@
       <c r="J7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K7" s="2"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K7" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
       <c r="D8" s="3">
+        <v>319000</v>
+      </c>
+      <c r="E8" s="3">
         <v>409500</v>
       </c>
-      <c r="E8" s="3">
+      <c r="F8" s="3">
         <v>371500</v>
       </c>
-      <c r="F8" s="3">
+      <c r="G8" s="3">
         <v>434400</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H8" s="3" t="s">
         <v>3</v>
       </c>
@@ -767,24 +735,27 @@
       <c r="J8" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K8" s="3"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K8" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L8" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C9" s="1" t="s">
         <v>5</v>
       </c>
       <c r="D9" s="3">
+        <v>307900</v>
+      </c>
+      <c r="E9" s="3">
         <v>387400</v>
       </c>
-      <c r="E9" s="3">
+      <c r="F9" s="3">
         <v>365700</v>
       </c>
-      <c r="F9" s="3">
+      <c r="G9" s="3">
         <v>407600</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H9" s="3" t="s">
         <v>3</v>
       </c>
@@ -794,24 +765,27 @@
       <c r="J9" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K9" s="3"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K9" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L9" s="3"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C10" s="1" t="s">
         <v>6</v>
       </c>
       <c r="D10" s="3">
+        <v>11100</v>
+      </c>
+      <c r="E10" s="3">
         <v>22100</v>
       </c>
-      <c r="E10" s="3">
+      <c r="F10" s="3">
         <v>5800</v>
       </c>
-      <c r="F10" s="3">
+      <c r="G10" s="3">
         <v>26900</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H10" s="3" t="s">
         <v>3</v>
       </c>
@@ -821,9 +795,12 @@
       <c r="J10" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K10" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
@@ -835,8 +812,9 @@
       <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C12" s="1" t="s">
         <v>8</v>
       </c>
@@ -861,9 +839,12 @@
       <c r="J12" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K12" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C13" s="1" t="s">
         <v>9</v>
       </c>
@@ -888,24 +869,27 @@
       <c r="J13" s="3">
         <v>0</v>
       </c>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K13" s="3">
+        <v>0</v>
+      </c>
+      <c r="L13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C14" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D14" s="3">
+        <v>-1900</v>
+      </c>
+      <c r="E14" s="3">
         <v>33700</v>
       </c>
-      <c r="E14" s="3">
+      <c r="F14" s="3">
         <v>12600</v>
       </c>
-      <c r="F14" s="3">
+      <c r="G14" s="3">
         <v>67800</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>3</v>
       </c>
@@ -915,14 +899,17 @@
       <c r="J14" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K14" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="C15" s="1" t="s">
         <v>11</v>
       </c>
       <c r="D15" s="3">
-        <v>1700</v>
+        <v>200</v>
       </c>
       <c r="E15" s="3">
         <v>1700</v>
@@ -930,8 +917,8 @@
       <c r="F15" s="3">
         <v>1700</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>3</v>
+      <c r="G15" s="3">
+        <v>1700</v>
       </c>
       <c r="H15" s="3" t="s">
         <v>3</v>
@@ -942,9 +929,12 @@
       <c r="J15" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K15" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -953,23 +943,24 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L16" s="3"/>
+    </row>
+    <row r="17" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C17" s="1" t="s">
         <v>12</v>
       </c>
       <c r="D17" s="3">
+        <v>338300</v>
+      </c>
+      <c r="E17" s="3">
         <v>467100</v>
       </c>
-      <c r="E17" s="3">
+      <c r="F17" s="3">
         <v>411400</v>
       </c>
-      <c r="F17" s="3">
+      <c r="G17" s="3">
         <v>521000</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H17" s="3" t="s">
         <v>3</v>
       </c>
@@ -979,24 +970,27 @@
       <c r="J17" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K17" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C18" s="1" t="s">
         <v>13</v>
       </c>
       <c r="D18" s="3">
+        <v>-19300</v>
+      </c>
+      <c r="E18" s="3">
         <v>-57600</v>
       </c>
-      <c r="E18" s="3">
+      <c r="F18" s="3">
         <v>-39900</v>
       </c>
-      <c r="F18" s="3">
+      <c r="G18" s="3">
         <v>-86600</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H18" s="3" t="s">
         <v>3</v>
       </c>
@@ -1006,9 +1000,12 @@
       <c r="J18" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K18" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
@@ -1020,8 +1017,9 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C20" s="1" t="s">
         <v>15</v>
       </c>
@@ -1034,8 +1032,8 @@
       <c r="F20" s="3">
         <v>0</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>3</v>
+      <c r="G20" s="3">
+        <v>0</v>
       </c>
       <c r="H20" s="3" t="s">
         <v>3</v>
@@ -1046,24 +1044,27 @@
       <c r="J20" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K20" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C21" s="1" t="s">
         <v>16</v>
       </c>
       <c r="D21" s="3">
+        <v>-5000</v>
+      </c>
+      <c r="E21" s="3">
         <v>-37900</v>
       </c>
-      <c r="E21" s="3">
+      <c r="F21" s="3">
         <v>-18300</v>
       </c>
-      <c r="F21" s="3">
+      <c r="G21" s="3">
         <v>-58900</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H21" s="3" t="s">
         <v>3</v>
       </c>
@@ -1073,9 +1074,12 @@
       <c r="J21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K21" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C22" s="1" t="s">
         <v>17</v>
       </c>
@@ -1100,24 +1104,27 @@
       <c r="J22" s="3">
         <v>0</v>
       </c>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K22" s="3">
+        <v>0</v>
+      </c>
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C23" s="1" t="s">
         <v>18</v>
       </c>
       <c r="D23" s="3">
+        <v>-19300</v>
+      </c>
+      <c r="E23" s="3">
         <v>-57600</v>
       </c>
-      <c r="E23" s="3">
+      <c r="F23" s="3">
         <v>-39900</v>
       </c>
-      <c r="F23" s="3">
+      <c r="G23" s="3">
         <v>-86600</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H23" s="3" t="s">
         <v>3</v>
       </c>
@@ -1127,23 +1134,26 @@
       <c r="J23" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K23" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C24" s="1" t="s">
         <v>19</v>
       </c>
       <c r="D24" s="3">
+        <v>1400</v>
+      </c>
+      <c r="E24" s="3">
         <v>3200</v>
-      </c>
-      <c r="E24" s="3">
-        <v>3800</v>
       </c>
       <c r="F24" s="3">
         <v>3800</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>3</v>
+      <c r="G24" s="3">
+        <v>3800</v>
       </c>
       <c r="H24" s="3" t="s">
         <v>3</v>
@@ -1154,9 +1164,12 @@
       <c r="J24" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K24" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C25" s="1" t="s">
         <v>20</v>
       </c>
@@ -1181,24 +1194,27 @@
       <c r="J25" s="3">
         <v>0</v>
       </c>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K25" s="3">
+        <v>0</v>
+      </c>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C26" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D26" s="3">
+        <v>-20600</v>
+      </c>
+      <c r="E26" s="3">
         <v>-60800</v>
       </c>
-      <c r="E26" s="3">
+      <c r="F26" s="3">
         <v>-43700</v>
       </c>
-      <c r="F26" s="3">
+      <c r="G26" s="3">
         <v>-90400</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H26" s="3" t="s">
         <v>3</v>
       </c>
@@ -1208,24 +1224,27 @@
       <c r="J26" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K26" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C27" s="1" t="s">
         <v>22</v>
       </c>
       <c r="D27" s="3">
+        <v>-20600</v>
+      </c>
+      <c r="E27" s="3">
         <v>-60800</v>
       </c>
-      <c r="E27" s="3">
+      <c r="F27" s="3">
         <v>-43700</v>
       </c>
-      <c r="F27" s="3">
+      <c r="G27" s="3">
         <v>-90400</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H27" s="3" t="s">
         <v>3</v>
       </c>
@@ -1235,9 +1254,12 @@
       <c r="J27" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K27" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C28" s="1" t="s">
         <v>23</v>
       </c>
@@ -1262,9 +1284,12 @@
       <c r="J28" s="3">
         <v>0</v>
       </c>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K28" s="3">
+        <v>0</v>
+      </c>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C29" s="1" t="s">
         <v>24</v>
       </c>
@@ -1289,9 +1314,12 @@
       <c r="J29" s="3">
         <v>0</v>
       </c>
-      <c r="K29" s="3"/>
-    </row>
-    <row r="30" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K29" s="3">
+        <v>0</v>
+      </c>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C30" s="1" t="s">
         <v>25</v>
       </c>
@@ -1316,9 +1344,12 @@
       <c r="J30" s="3">
         <v>0</v>
       </c>
-      <c r="K30" s="3"/>
-    </row>
-    <row r="31" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K30" s="3">
+        <v>0</v>
+      </c>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C31" s="1" t="s">
         <v>26</v>
       </c>
@@ -1343,9 +1374,12 @@
       <c r="J31" s="3">
         <v>0</v>
       </c>
-      <c r="K31" s="3"/>
-    </row>
-    <row r="32" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K31" s="3">
+        <v>0</v>
+      </c>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C32" s="1" t="s">
         <v>27</v>
       </c>
@@ -1358,8 +1392,8 @@
       <c r="F32" s="3">
         <v>0</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>3</v>
+      <c r="G32" s="3">
+        <v>0</v>
       </c>
       <c r="H32" s="3" t="s">
         <v>3</v>
@@ -1370,24 +1404,27 @@
       <c r="J32" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K32" s="3"/>
-    </row>
-    <row r="33" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K32" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C33" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D33" s="3">
+        <v>-20600</v>
+      </c>
+      <c r="E33" s="3">
         <v>-60800</v>
       </c>
-      <c r="E33" s="3">
+      <c r="F33" s="3">
         <v>-43700</v>
       </c>
-      <c r="F33" s="3">
+      <c r="G33" s="3">
         <v>-90400</v>
       </c>
-      <c r="G33" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H33" s="3" t="s">
         <v>3</v>
       </c>
@@ -1397,9 +1434,12 @@
       <c r="J33" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K33" s="3"/>
-    </row>
-    <row r="34" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K33" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C34" s="1" t="s">
         <v>29</v>
       </c>
@@ -1424,24 +1464,27 @@
       <c r="J34" s="3">
         <v>0</v>
       </c>
-      <c r="K34" s="3"/>
-    </row>
-    <row r="35" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K34" s="3">
+        <v>0</v>
+      </c>
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C35" s="1" t="s">
         <v>30</v>
       </c>
       <c r="D35" s="3">
+        <v>-20600</v>
+      </c>
+      <c r="E35" s="3">
         <v>-60800</v>
       </c>
-      <c r="E35" s="3">
+      <c r="F35" s="3">
         <v>-43700</v>
       </c>
-      <c r="F35" s="3">
+      <c r="G35" s="3">
         <v>-90400</v>
       </c>
-      <c r="G35" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H35" s="3" t="s">
         <v>3</v>
       </c>
@@ -1451,29 +1494,32 @@
       <c r="J35" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K35" s="3"/>
-    </row>
-    <row r="37" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K35" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L35" s="3"/>
+    </row>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B37" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="38" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C38" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D38" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E38" s="2">
         <v>43100</v>
       </c>
-      <c r="E38" s="2">
+      <c r="F38" s="2">
         <v>42735</v>
       </c>
-      <c r="F38" s="2">
+      <c r="G38" s="2">
         <v>42369</v>
       </c>
-      <c r="G38" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H38" s="2" t="s">
         <v>3</v>
       </c>
@@ -1483,9 +1529,12 @@
       <c r="J38" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K38" s="2"/>
-    </row>
-    <row r="39" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C39" s="1" t="s">
         <v>32</v>
       </c>
@@ -1497,8 +1546,9 @@
       <c r="I39" s="3"/>
       <c r="J39" s="3"/>
       <c r="K39" s="3"/>
-    </row>
-    <row r="40" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C40" s="1" t="s">
         <v>33</v>
       </c>
@@ -1510,23 +1560,24 @@
       <c r="I40" s="3"/>
       <c r="J40" s="3"/>
       <c r="K40" s="3"/>
-    </row>
-    <row r="41" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L40" s="3"/>
+    </row>
+    <row r="41" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C41" s="1" t="s">
         <v>34</v>
       </c>
       <c r="D41" s="3">
+        <v>35600</v>
+      </c>
+      <c r="E41" s="3">
         <v>46500</v>
       </c>
-      <c r="E41" s="3">
+      <c r="F41" s="3">
         <v>67700</v>
       </c>
-      <c r="F41" s="3">
+      <c r="G41" s="3">
         <v>75500</v>
       </c>
-      <c r="G41" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H41" s="3" t="s">
         <v>3</v>
       </c>
@@ -1536,9 +1587,12 @@
       <c r="J41" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K41" s="3"/>
-    </row>
-    <row r="42" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K41" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L41" s="3"/>
+    </row>
+    <row r="42" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C42" s="1" t="s">
         <v>35</v>
       </c>
@@ -1563,24 +1617,27 @@
       <c r="J42" s="3">
         <v>0</v>
       </c>
-      <c r="K42" s="3"/>
-    </row>
-    <row r="43" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K42" s="3">
+        <v>0</v>
+      </c>
+      <c r="L42" s="3"/>
+    </row>
+    <row r="43" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C43" s="1" t="s">
         <v>36</v>
       </c>
       <c r="D43" s="3">
+        <v>69200</v>
+      </c>
+      <c r="E43" s="3">
         <v>76500</v>
       </c>
-      <c r="E43" s="3">
+      <c r="F43" s="3">
         <v>81300</v>
       </c>
-      <c r="F43" s="3">
+      <c r="G43" s="3">
         <v>60300</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H43" s="3" t="s">
         <v>3</v>
       </c>
@@ -1590,24 +1647,27 @@
       <c r="J43" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K43" s="3"/>
-    </row>
-    <row r="44" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K43" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L43" s="3"/>
+    </row>
+    <row r="44" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C44" s="1" t="s">
         <v>37</v>
       </c>
       <c r="D44" s="3">
+        <v>10800</v>
+      </c>
+      <c r="E44" s="3">
         <v>9100</v>
       </c>
-      <c r="E44" s="3">
+      <c r="F44" s="3">
         <v>11600</v>
       </c>
-      <c r="F44" s="3">
+      <c r="G44" s="3">
         <v>8500</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H44" s="3" t="s">
         <v>3</v>
       </c>
@@ -1617,24 +1677,27 @@
       <c r="J44" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K44" s="3"/>
-    </row>
-    <row r="45" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K44" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L44" s="3"/>
+    </row>
+    <row r="45" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C45" s="1" t="s">
         <v>38</v>
       </c>
       <c r="D45" s="3">
+        <v>7300</v>
+      </c>
+      <c r="E45" s="3">
         <v>55100</v>
       </c>
-      <c r="E45" s="3">
+      <c r="F45" s="3">
         <v>200</v>
       </c>
-      <c r="F45" s="3">
+      <c r="G45" s="3">
         <v>300</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H45" s="3" t="s">
         <v>3</v>
       </c>
@@ -1644,24 +1707,27 @@
       <c r="J45" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K45" s="3"/>
-    </row>
-    <row r="46" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K45" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L45" s="3"/>
+    </row>
+    <row r="46" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C46" s="1" t="s">
         <v>39</v>
       </c>
       <c r="D46" s="3">
+        <v>122900</v>
+      </c>
+      <c r="E46" s="3">
         <v>187200</v>
       </c>
-      <c r="E46" s="3">
+      <c r="F46" s="3">
         <v>160800</v>
       </c>
-      <c r="F46" s="3">
+      <c r="G46" s="3">
         <v>144600</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H46" s="3" t="s">
         <v>3</v>
       </c>
@@ -1671,24 +1737,27 @@
       <c r="J46" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K46" s="3"/>
-    </row>
-    <row r="47" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K46" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L46" s="3"/>
+    </row>
+    <row r="47" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C47" s="1" t="s">
         <v>40</v>
       </c>
       <c r="D47" s="3">
+        <v>54600</v>
+      </c>
+      <c r="E47" s="3">
         <v>71700</v>
       </c>
-      <c r="E47" s="3">
+      <c r="F47" s="3">
         <v>102100</v>
       </c>
-      <c r="F47" s="3">
+      <c r="G47" s="3">
         <v>93100</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H47" s="3" t="s">
         <v>3</v>
       </c>
@@ -1698,24 +1767,27 @@
       <c r="J47" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K47" s="3"/>
-    </row>
-    <row r="48" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K47" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L47" s="3"/>
+    </row>
+    <row r="48" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="D48" s="3">
+        <v>249600</v>
+      </c>
+      <c r="E48" s="3">
         <v>238600</v>
       </c>
-      <c r="E48" s="3">
+      <c r="F48" s="3">
         <v>303900</v>
       </c>
-      <c r="F48" s="3">
+      <c r="G48" s="3">
         <v>319400</v>
       </c>
-      <c r="G48" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H48" s="3" t="s">
         <v>3</v>
       </c>
@@ -1725,24 +1797,27 @@
       <c r="J48" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K48" s="3"/>
-    </row>
-    <row r="49" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K48" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L48" s="3"/>
+    </row>
+    <row r="49" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C49" s="1" t="s">
         <v>42</v>
       </c>
       <c r="D49" s="3">
+        <v>7400</v>
+      </c>
+      <c r="E49" s="3">
         <v>8500</v>
       </c>
-      <c r="E49" s="3">
+      <c r="F49" s="3">
         <v>22600</v>
       </c>
-      <c r="F49" s="3">
+      <c r="G49" s="3">
         <v>20500</v>
       </c>
-      <c r="G49" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H49" s="3" t="s">
         <v>3</v>
       </c>
@@ -1752,9 +1827,12 @@
       <c r="J49" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K49" s="3"/>
-    </row>
-    <row r="50" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K49" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L49" s="3"/>
+    </row>
+    <row r="50" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C50" s="1" t="s">
         <v>43</v>
       </c>
@@ -1779,9 +1857,12 @@
       <c r="J50" s="3">
         <v>0</v>
       </c>
-      <c r="K50" s="3"/>
-    </row>
-    <row r="51" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K50" s="3">
+        <v>0</v>
+      </c>
+      <c r="L50" s="3"/>
+    </row>
+    <row r="51" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C51" s="1" t="s">
         <v>44</v>
       </c>
@@ -1806,24 +1887,27 @@
       <c r="J51" s="3">
         <v>0</v>
       </c>
-      <c r="K51" s="3"/>
-    </row>
-    <row r="52" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K51" s="3">
+        <v>0</v>
+      </c>
+      <c r="L51" s="3"/>
+    </row>
+    <row r="52" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C52" s="1" t="s">
         <v>45</v>
       </c>
       <c r="D52" s="3">
+        <v>13100</v>
+      </c>
+      <c r="E52" s="3">
         <v>1200</v>
       </c>
-      <c r="E52" s="3">
+      <c r="F52" s="3">
         <v>800</v>
       </c>
-      <c r="F52" s="3">
+      <c r="G52" s="3">
         <v>1200</v>
       </c>
-      <c r="G52" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H52" s="3" t="s">
         <v>3</v>
       </c>
@@ -1833,9 +1917,12 @@
       <c r="J52" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K52" s="3"/>
-    </row>
-    <row r="53" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K52" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L52" s="3"/>
+    </row>
+    <row r="53" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C53" s="1" t="s">
         <v>46</v>
       </c>
@@ -1860,24 +1947,27 @@
       <c r="J53" s="3">
         <v>0</v>
       </c>
-      <c r="K53" s="3"/>
-    </row>
-    <row r="54" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K53" s="3">
+        <v>0</v>
+      </c>
+      <c r="L53" s="3"/>
+    </row>
+    <row r="54" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C54" s="1" t="s">
         <v>47</v>
       </c>
       <c r="D54" s="3">
+        <v>447600</v>
+      </c>
+      <c r="E54" s="3">
         <v>507100</v>
       </c>
-      <c r="E54" s="3">
+      <c r="F54" s="3">
         <v>590200</v>
       </c>
-      <c r="F54" s="3">
+      <c r="G54" s="3">
         <v>578700</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H54" s="3" t="s">
         <v>3</v>
       </c>
@@ -1887,9 +1977,12 @@
       <c r="J54" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K54" s="3"/>
-    </row>
-    <row r="55" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K54" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L54" s="3"/>
+    </row>
+    <row r="55" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C55" s="1" t="s">
         <v>48</v>
       </c>
@@ -1901,8 +1994,9 @@
       <c r="I55" s="3"/>
       <c r="J55" s="3"/>
       <c r="K55" s="3"/>
-    </row>
-    <row r="56" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L55" s="3"/>
+    </row>
+    <row r="56" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C56" s="1" t="s">
         <v>49</v>
       </c>
@@ -1914,23 +2008,24 @@
       <c r="I56" s="3"/>
       <c r="J56" s="3"/>
       <c r="K56" s="3"/>
-    </row>
-    <row r="57" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L56" s="3"/>
+    </row>
+    <row r="57" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C57" s="1" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="3">
+        <v>9000</v>
+      </c>
+      <c r="E57" s="3">
         <v>28400</v>
       </c>
-      <c r="E57" s="3">
+      <c r="F57" s="3">
         <v>38400</v>
       </c>
-      <c r="F57" s="3">
+      <c r="G57" s="3">
         <v>40900</v>
       </c>
-      <c r="G57" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H57" s="3" t="s">
         <v>3</v>
       </c>
@@ -1940,24 +2035,27 @@
       <c r="J57" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K57" s="3"/>
-    </row>
-    <row r="58" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K57" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L57" s="3"/>
+    </row>
+    <row r="58" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C58" s="1" t="s">
         <v>51</v>
       </c>
       <c r="D58" s="3">
+        <v>18300</v>
+      </c>
+      <c r="E58" s="3">
         <v>92000</v>
       </c>
-      <c r="E58" s="3">
+      <c r="F58" s="3">
         <v>71400</v>
       </c>
-      <c r="F58" s="3">
+      <c r="G58" s="3">
         <v>93900</v>
       </c>
-      <c r="G58" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H58" s="3" t="s">
         <v>3</v>
       </c>
@@ -1967,24 +2065,27 @@
       <c r="J58" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K58" s="3"/>
-    </row>
-    <row r="59" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K58" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L58" s="3"/>
+    </row>
+    <row r="59" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C59" s="1" t="s">
         <v>52</v>
       </c>
       <c r="D59" s="3">
+        <v>29400</v>
+      </c>
+      <c r="E59" s="3">
         <v>42900</v>
       </c>
-      <c r="E59" s="3">
+      <c r="F59" s="3">
         <v>31900</v>
       </c>
-      <c r="F59" s="3">
+      <c r="G59" s="3">
         <v>31600</v>
       </c>
-      <c r="G59" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H59" s="3" t="s">
         <v>3</v>
       </c>
@@ -1994,24 +2095,27 @@
       <c r="J59" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K59" s="3"/>
-    </row>
-    <row r="60" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K59" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L59" s="3"/>
+    </row>
+    <row r="60" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C60" s="1" t="s">
         <v>53</v>
       </c>
       <c r="D60" s="3">
+        <v>56700</v>
+      </c>
+      <c r="E60" s="3">
         <v>163200</v>
       </c>
-      <c r="E60" s="3">
+      <c r="F60" s="3">
         <v>141700</v>
       </c>
-      <c r="F60" s="3">
+      <c r="G60" s="3">
         <v>166400</v>
       </c>
-      <c r="G60" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H60" s="3" t="s">
         <v>3</v>
       </c>
@@ -2021,24 +2125,27 @@
       <c r="J60" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K60" s="3"/>
-    </row>
-    <row r="61" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K60" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L60" s="3"/>
+    </row>
+    <row r="61" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C61" s="1" t="s">
         <v>54</v>
       </c>
       <c r="D61" s="3">
+        <v>96100</v>
+      </c>
+      <c r="E61" s="3">
         <v>20800</v>
       </c>
-      <c r="E61" s="3">
+      <c r="F61" s="3">
         <v>78400</v>
       </c>
-      <c r="F61" s="3">
+      <c r="G61" s="3">
         <v>8100</v>
       </c>
-      <c r="G61" s="3">
-        <v>0</v>
-      </c>
       <c r="H61" s="3">
         <v>0</v>
       </c>
@@ -2048,24 +2155,27 @@
       <c r="J61" s="3">
         <v>0</v>
       </c>
-      <c r="K61" s="3"/>
-    </row>
-    <row r="62" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K61" s="3">
+        <v>0</v>
+      </c>
+      <c r="L61" s="3"/>
+    </row>
+    <row r="62" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C62" s="1" t="s">
         <v>55</v>
       </c>
       <c r="D62" s="3">
+        <v>2300</v>
+      </c>
+      <c r="E62" s="3">
         <v>3300</v>
       </c>
-      <c r="E62" s="3">
+      <c r="F62" s="3">
         <v>7000</v>
       </c>
-      <c r="F62" s="3">
+      <c r="G62" s="3">
         <v>5200</v>
       </c>
-      <c r="G62" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H62" s="3" t="s">
         <v>3</v>
       </c>
@@ -2075,9 +2185,12 @@
       <c r="J62" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K62" s="3"/>
-    </row>
-    <row r="63" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K62" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L62" s="3"/>
+    </row>
+    <row r="63" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C63" s="1" t="s">
         <v>56</v>
       </c>
@@ -2102,9 +2215,12 @@
       <c r="J63" s="3">
         <v>0</v>
       </c>
-      <c r="K63" s="3"/>
-    </row>
-    <row r="64" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K63" s="3">
+        <v>0</v>
+      </c>
+      <c r="L63" s="3"/>
+    </row>
+    <row r="64" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C64" s="1" t="s">
         <v>20</v>
       </c>
@@ -2129,9 +2245,12 @@
       <c r="J64" s="3">
         <v>0</v>
       </c>
-      <c r="K64" s="3"/>
-    </row>
-    <row r="65" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K64" s="3">
+        <v>0</v>
+      </c>
+      <c r="L64" s="3"/>
+    </row>
+    <row r="65" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C65" s="1" t="s">
         <v>57</v>
       </c>
@@ -2156,24 +2275,27 @@
       <c r="J65" s="3">
         <v>0</v>
       </c>
-      <c r="K65" s="3"/>
-    </row>
-    <row r="66" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K65" s="3">
+        <v>0</v>
+      </c>
+      <c r="L65" s="3"/>
+    </row>
+    <row r="66" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C66" s="1" t="s">
         <v>58</v>
       </c>
       <c r="D66" s="3">
+        <v>155100</v>
+      </c>
+      <c r="E66" s="3">
         <v>187400</v>
       </c>
-      <c r="E66" s="3">
+      <c r="F66" s="3">
         <v>227100</v>
       </c>
-      <c r="F66" s="3">
+      <c r="G66" s="3">
         <v>179600</v>
       </c>
-      <c r="G66" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H66" s="3" t="s">
         <v>3</v>
       </c>
@@ -2183,9 +2305,12 @@
       <c r="J66" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K66" s="3"/>
-    </row>
-    <row r="67" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K66" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L66" s="3"/>
+    </row>
+    <row r="67" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C67" s="1" t="s">
         <v>59</v>
       </c>
@@ -2197,8 +2322,9 @@
       <c r="I67" s="3"/>
       <c r="J67" s="3"/>
       <c r="K67" s="3"/>
-    </row>
-    <row r="68" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="L67" s="3"/>
+    </row>
+    <row r="68" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C68" s="1" t="s">
         <v>60</v>
       </c>
@@ -2223,9 +2349,12 @@
       <c r="J68" s="3">
         <v>0</v>
       </c>
-      <c r="K68" s="3"/>
-    </row>
-    <row r="69" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K68" s="3">
+        <v>0</v>
+      </c>
+      <c r="L68" s="3"/>
+    </row>
+    <row r="69" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C69" s="1" t="s">
         <v>61</v>
       </c>
@@ -2250,9 +2379,12 @@
       <c r="J69" s="3">
         <v>0</v>
       </c>
-      <c r="K69" s="3"/>
-    </row>
-    <row r="70" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K69" s="3">
+        <v>0</v>
+      </c>
+      <c r="L69" s="3"/>
+    </row>
+    <row r="70" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C70" s="1" t="s">
         <v>62</v>
       </c>
@@ -2277,9 +2409,12 @@
       <c r="J70" s="3">
         <v>0</v>
       </c>
-      <c r="K70" s="3"/>
-    </row>
-    <row r="71" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K70" s="3">
+        <v>0</v>
+      </c>
+      <c r="L70" s="3"/>
+    </row>
+    <row r="71" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C71" s="1" t="s">
         <v>63</v>
       </c>
@@ -2304,24 +2439,27 @@
       <c r="J71" s="3">
         <v>0</v>
       </c>
-      <c r="K71" s="3"/>
-    </row>
-    <row r="72" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K71" s="3">
+        <v>0</v>
+      </c>
+      <c r="L71" s="3"/>
+    </row>
+    <row r="72" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C72" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D72" s="3">
+        <v>-24000</v>
+      </c>
+      <c r="E72" s="3">
         <v>-160100</v>
       </c>
-      <c r="E72" s="3">
+      <c r="F72" s="3">
         <v>-97300</v>
       </c>
-      <c r="F72" s="3">
+      <c r="G72" s="3">
         <v>-53800</v>
       </c>
-      <c r="G72" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H72" s="3" t="s">
         <v>3</v>
       </c>
@@ -2331,9 +2469,12 @@
       <c r="J72" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K72" s="3"/>
-    </row>
-    <row r="73" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K72" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L72" s="3"/>
+    </row>
+    <row r="73" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C73" s="1" t="s">
         <v>65</v>
       </c>
@@ -2358,9 +2499,12 @@
       <c r="J73" s="3">
         <v>0</v>
       </c>
-      <c r="K73" s="3"/>
-    </row>
-    <row r="74" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K73" s="3">
+        <v>0</v>
+      </c>
+      <c r="L73" s="3"/>
+    </row>
+    <row r="74" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C74" s="1" t="s">
         <v>66</v>
       </c>
@@ -2385,9 +2529,12 @@
       <c r="J74" s="3">
         <v>0</v>
       </c>
-      <c r="K74" s="3"/>
-    </row>
-    <row r="75" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K74" s="3">
+        <v>0</v>
+      </c>
+      <c r="L74" s="3"/>
+    </row>
+    <row r="75" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C75" s="1" t="s">
         <v>67</v>
       </c>
@@ -2412,24 +2559,27 @@
       <c r="J75" s="3">
         <v>0</v>
       </c>
-      <c r="K75" s="3"/>
-    </row>
-    <row r="76" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K75" s="3">
+        <v>0</v>
+      </c>
+      <c r="L75" s="3"/>
+    </row>
+    <row r="76" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C76" s="1" t="s">
         <v>68</v>
       </c>
       <c r="D76" s="3">
+        <v>292500</v>
+      </c>
+      <c r="E76" s="3">
         <v>319700</v>
       </c>
-      <c r="E76" s="3">
+      <c r="F76" s="3">
         <v>363100</v>
       </c>
-      <c r="F76" s="3">
+      <c r="G76" s="3">
         <v>399100</v>
       </c>
-      <c r="G76" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H76" s="3" t="s">
         <v>3</v>
       </c>
@@ -2439,9 +2589,12 @@
       <c r="J76" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K76" s="3"/>
-    </row>
-    <row r="77" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K76" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L76" s="3"/>
+    </row>
+    <row r="77" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C77" s="1" t="s">
         <v>69</v>
       </c>
@@ -2466,29 +2619,32 @@
       <c r="J77" s="3">
         <v>0</v>
       </c>
-      <c r="K77" s="3"/>
-    </row>
-    <row r="79" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="K77" s="3">
+        <v>0</v>
+      </c>
+      <c r="L77" s="3"/>
+    </row>
+    <row r="79" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B79" s="1" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="80" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C80" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D80" s="2">
+        <v>43465</v>
+      </c>
+      <c r="E80" s="2">
         <v>43100</v>
       </c>
-      <c r="E80" s="2">
+      <c r="F80" s="2">
         <v>42735</v>
       </c>
-      <c r="F80" s="2">
+      <c r="G80" s="2">
         <v>42369</v>
       </c>
-      <c r="G80" s="2" t="s">
-        <v>3</v>
-      </c>
       <c r="H80" s="2" t="s">
         <v>3</v>
       </c>
@@ -2498,24 +2654,27 @@
       <c r="J80" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="K80" s="2"/>
-    </row>
-    <row r="81" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K80" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L80" s="2"/>
+    </row>
+    <row r="81" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C81" s="1" t="s">
         <v>28</v>
       </c>
       <c r="D81" s="3">
+        <v>-20600</v>
+      </c>
+      <c r="E81" s="3">
         <v>-60800</v>
       </c>
-      <c r="E81" s="3">
+      <c r="F81" s="3">
         <v>-43700</v>
       </c>
-      <c r="F81" s="3">
+      <c r="G81" s="3">
         <v>-90400</v>
       </c>
-      <c r="G81" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H81" s="3" t="s">
         <v>3</v>
       </c>
@@ -2525,9 +2684,12 @@
       <c r="J81" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K81" s="3"/>
-    </row>
-    <row r="82" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K81" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L81" s="3"/>
+    </row>
+    <row r="82" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C82" s="1" t="s">
         <v>71</v>
       </c>
@@ -2539,23 +2701,24 @@
       <c r="I82" s="3"/>
       <c r="J82" s="3"/>
       <c r="K82" s="3"/>
-    </row>
-    <row r="83" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L82" s="3"/>
+    </row>
+    <row r="83" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C83" s="1" t="s">
         <v>72</v>
       </c>
       <c r="D83" s="3">
+        <v>14300</v>
+      </c>
+      <c r="E83" s="3">
         <v>19700</v>
       </c>
-      <c r="E83" s="3">
+      <c r="F83" s="3">
         <v>21600</v>
       </c>
-      <c r="F83" s="3">
+      <c r="G83" s="3">
         <v>27700</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H83" s="3" t="s">
         <v>3</v>
       </c>
@@ -2565,9 +2728,12 @@
       <c r="J83" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K83" s="3"/>
-    </row>
-    <row r="84" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K83" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L83" s="3"/>
+    </row>
+    <row r="84" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C84" s="1" t="s">
         <v>73</v>
       </c>
@@ -2592,9 +2758,12 @@
       <c r="J84" s="3">
         <v>0</v>
       </c>
-      <c r="K84" s="3"/>
-    </row>
-    <row r="85" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K84" s="3">
+        <v>0</v>
+      </c>
+      <c r="L84" s="3"/>
+    </row>
+    <row r="85" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C85" s="1" t="s">
         <v>74</v>
       </c>
@@ -2619,9 +2788,12 @@
       <c r="J85" s="3">
         <v>0</v>
       </c>
-      <c r="K85" s="3"/>
-    </row>
-    <row r="86" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K85" s="3">
+        <v>0</v>
+      </c>
+      <c r="L85" s="3"/>
+    </row>
+    <row r="86" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C86" s="1" t="s">
         <v>75</v>
       </c>
@@ -2646,9 +2818,12 @@
       <c r="J86" s="3">
         <v>0</v>
       </c>
-      <c r="K86" s="3"/>
-    </row>
-    <row r="87" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K86" s="3">
+        <v>0</v>
+      </c>
+      <c r="L86" s="3"/>
+    </row>
+    <row r="87" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C87" s="1" t="s">
         <v>76</v>
       </c>
@@ -2673,9 +2848,12 @@
       <c r="J87" s="3">
         <v>0</v>
       </c>
-      <c r="K87" s="3"/>
-    </row>
-    <row r="88" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K87" s="3">
+        <v>0</v>
+      </c>
+      <c r="L87" s="3"/>
+    </row>
+    <row r="88" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C88" s="1" t="s">
         <v>77</v>
       </c>
@@ -2700,24 +2878,27 @@
       <c r="J88" s="3">
         <v>0</v>
       </c>
-      <c r="K88" s="3"/>
-    </row>
-    <row r="89" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K88" s="3">
+        <v>0</v>
+      </c>
+      <c r="L88" s="3"/>
+    </row>
+    <row r="89" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C89" s="1" t="s">
         <v>78</v>
       </c>
       <c r="D89" s="3">
+        <v>-37400</v>
+      </c>
+      <c r="E89" s="3">
         <v>3400</v>
       </c>
-      <c r="E89" s="3">
+      <c r="F89" s="3">
         <v>-21300</v>
       </c>
-      <c r="F89" s="3">
+      <c r="G89" s="3">
         <v>114700</v>
       </c>
-      <c r="G89" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H89" s="3" t="s">
         <v>3</v>
       </c>
@@ -2727,9 +2908,12 @@
       <c r="J89" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K89" s="3"/>
-    </row>
-    <row r="90" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K89" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L89" s="3"/>
+    </row>
+    <row r="90" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C90" s="1" t="s">
         <v>79</v>
       </c>
@@ -2741,23 +2925,24 @@
       <c r="I90" s="3"/>
       <c r="J90" s="3"/>
       <c r="K90" s="3"/>
-    </row>
-    <row r="91" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L90" s="3"/>
+    </row>
+    <row r="91" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C91" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D91" s="3">
+        <v>-400</v>
+      </c>
+      <c r="E91" s="3">
         <v>-1200</v>
       </c>
-      <c r="E91" s="3">
+      <c r="F91" s="3">
         <v>-700</v>
       </c>
-      <c r="F91" s="3">
+      <c r="G91" s="3">
         <v>-14600</v>
       </c>
-      <c r="G91" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H91" s="3" t="s">
         <v>3</v>
       </c>
@@ -2767,9 +2952,12 @@
       <c r="J91" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K91" s="3"/>
-    </row>
-    <row r="92" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K91" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L91" s="3"/>
+    </row>
+    <row r="92" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C92" s="1" t="s">
         <v>81</v>
       </c>
@@ -2794,9 +2982,12 @@
       <c r="J92" s="3">
         <v>0</v>
       </c>
-      <c r="K92" s="3"/>
-    </row>
-    <row r="93" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K92" s="3">
+        <v>0</v>
+      </c>
+      <c r="L92" s="3"/>
+    </row>
+    <row r="93" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C93" s="1" t="s">
         <v>82</v>
       </c>
@@ -2821,24 +3012,27 @@
       <c r="J93" s="3">
         <v>0</v>
       </c>
-      <c r="K93" s="3"/>
-    </row>
-    <row r="94" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K93" s="3">
+        <v>0</v>
+      </c>
+      <c r="L93" s="3"/>
+    </row>
+    <row r="94" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C94" s="1" t="s">
         <v>83</v>
       </c>
       <c r="D94" s="3">
+        <v>40000</v>
+      </c>
+      <c r="E94" s="3">
         <v>-2100</v>
       </c>
-      <c r="E94" s="3">
+      <c r="F94" s="3">
         <v>-35700</v>
       </c>
-      <c r="F94" s="3">
+      <c r="G94" s="3">
         <v>-55600</v>
       </c>
-      <c r="G94" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H94" s="3" t="s">
         <v>3</v>
       </c>
@@ -2848,9 +3042,12 @@
       <c r="J94" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K94" s="3"/>
-    </row>
-    <row r="95" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K94" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L94" s="3"/>
+    </row>
+    <row r="95" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C95" s="1" t="s">
         <v>84</v>
       </c>
@@ -2862,23 +3059,24 @@
       <c r="I95" s="3"/>
       <c r="J95" s="3"/>
       <c r="K95" s="3"/>
-    </row>
-    <row r="96" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="L95" s="3"/>
+    </row>
+    <row r="96" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C96" s="1" t="s">
         <v>85</v>
       </c>
       <c r="D96" s="3">
+        <v>0</v>
+      </c>
+      <c r="E96" s="3">
         <v>-1700</v>
       </c>
-      <c r="E96" s="3">
-        <v>0</v>
-      </c>
       <c r="F96" s="3">
+        <v>0</v>
+      </c>
+      <c r="G96" s="3">
         <v>-4100</v>
       </c>
-      <c r="G96" s="3">
-        <v>0</v>
-      </c>
       <c r="H96" s="3">
         <v>0</v>
       </c>
@@ -2888,9 +3086,12 @@
       <c r="J96" s="3">
         <v>0</v>
       </c>
-      <c r="K96" s="3"/>
-    </row>
-    <row r="97" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K96" s="3">
+        <v>0</v>
+      </c>
+      <c r="L96" s="3"/>
+    </row>
+    <row r="97" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C97" s="1" t="s">
         <v>86</v>
       </c>
@@ -2915,9 +3116,12 @@
       <c r="J97" s="3">
         <v>0</v>
       </c>
-      <c r="K97" s="3"/>
-    </row>
-    <row r="98" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K97" s="3">
+        <v>0</v>
+      </c>
+      <c r="L97" s="3"/>
+    </row>
+    <row r="98" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C98" s="1" t="s">
         <v>87</v>
       </c>
@@ -2942,9 +3146,12 @@
       <c r="J98" s="3">
         <v>0</v>
       </c>
-      <c r="K98" s="3"/>
-    </row>
-    <row r="99" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K98" s="3">
+        <v>0</v>
+      </c>
+      <c r="L98" s="3"/>
+    </row>
+    <row r="99" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C99" s="1" t="s">
         <v>88</v>
       </c>
@@ -2969,24 +3176,27 @@
       <c r="J99" s="3">
         <v>0</v>
       </c>
-      <c r="K99" s="3"/>
-    </row>
-    <row r="100" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K99" s="3">
+        <v>0</v>
+      </c>
+      <c r="L99" s="3"/>
+    </row>
+    <row r="100" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C100" s="1" t="s">
         <v>89</v>
       </c>
       <c r="D100" s="3">
+        <v>-11900</v>
+      </c>
+      <c r="E100" s="3">
         <v>-19800</v>
       </c>
-      <c r="E100" s="3">
+      <c r="F100" s="3">
         <v>47700</v>
       </c>
-      <c r="F100" s="3">
+      <c r="G100" s="3">
         <v>-33300</v>
       </c>
-      <c r="G100" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H100" s="3" t="s">
         <v>3</v>
       </c>
@@ -2996,24 +3206,27 @@
       <c r="J100" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K100" s="3"/>
-    </row>
-    <row r="101" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K100" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L100" s="3"/>
+    </row>
+    <row r="101" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C101" s="1" t="s">
         <v>90</v>
       </c>
       <c r="D101" s="3">
+        <v>-2500</v>
+      </c>
+      <c r="E101" s="3">
         <v>1300</v>
       </c>
-      <c r="E101" s="3">
+      <c r="F101" s="3">
         <v>1700</v>
       </c>
-      <c r="F101" s="3">
+      <c r="G101" s="3">
         <v>-4000</v>
       </c>
-      <c r="G101" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H101" s="3" t="s">
         <v>3</v>
       </c>
@@ -3023,24 +3236,27 @@
       <c r="J101" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K101" s="3"/>
-    </row>
-    <row r="102" spans="3:11" x14ac:dyDescent="0.3">
+      <c r="K101" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L101" s="3"/>
+    </row>
+    <row r="102" spans="3:12" x14ac:dyDescent="0.2">
       <c r="C102" s="1" t="s">
         <v>91</v>
       </c>
       <c r="D102" s="3">
+        <v>-11700</v>
+      </c>
+      <c r="E102" s="3">
         <v>-17200</v>
       </c>
-      <c r="E102" s="3">
+      <c r="F102" s="3">
         <v>-7600</v>
       </c>
-      <c r="F102" s="3">
+      <c r="G102" s="3">
         <v>21800</v>
       </c>
-      <c r="G102" s="3" t="s">
-        <v>3</v>
-      </c>
       <c r="H102" s="3" t="s">
         <v>3</v>
       </c>
@@ -3050,7 +3266,10 @@
       <c r="J102" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="K102" s="3"/>
+      <c r="K102" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="L102" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
